--- a/Submissions/graph_for_final.xlsx
+++ b/Submissions/graph_for_final.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -55,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +86,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,8 +264,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142509160"/>
-        <c:axId val="2142472664"/>
+        <c:axId val="-2145494696"/>
+        <c:axId val="-2145333416"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -321,11 +327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147101848"/>
-        <c:axId val="-2147103144"/>
+        <c:axId val="-2145358840"/>
+        <c:axId val="-2145193912"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="2142509160"/>
+        <c:axId val="-2145494696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -334,7 +340,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142472664"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2145333416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -342,7 +358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142472664"/>
+        <c:axId val="-2145333416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,12 +369,22 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142509160"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2145494696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147103144"/>
+        <c:axId val="-2145193912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,12 +394,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147101848"/>
+        <c:crossAx val="-2145358840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147101848"/>
+        <c:axId val="-2145358840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -384,7 +410,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-2147103144"/>
+        <c:crossAx val="-2145193912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -393,38 +419,47 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8567295" cy="5829508"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -437,7 +472,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -765,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +899,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
